--- a/xlsx/职官_intext.xlsx
+++ b/xlsx/职官_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_职官</t>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_职官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>戰國 (中國)</t>
+    <t>战国 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%95%E5%BA%9C_(%E6%97%A5%E6%9C%AC)</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%8F%A4%E4%BB%A3%E8%81%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>中國古代職官</t>
+    <t>中国古代职官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%8F%A4%E4%BB%A3%E8%81%8C%E5%AE%98</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8D%E9%9A%8E</t>
   </si>
   <si>
-    <t>位階</t>
+    <t>位阶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E4%BD%8D%E9%9A%8E</t>
   </si>
   <si>
-    <t>琉球位階</t>
+    <t>琉球位阶</t>
   </si>
 </sst>
 </file>
